--- a/Data Files/DataFile.xlsx
+++ b/Data Files/DataFile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon_Studio_Windows_64-5.8.0\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shahrulibrahim\Katalon Studio\TANGO\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>CompanyCode</t>
   </si>
@@ -141,13 +141,10 @@
     <t>Malaysian</t>
   </si>
   <si>
-    <t>Germany</t>
+    <t>Personal</t>
   </si>
   <si>
     <t>Cell</t>
-  </si>
-  <si>
-    <t>Personal</t>
   </si>
 </sst>
 </file>
@@ -533,7 +530,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,7 +652,7 @@
         <v>40150</v>
       </c>
       <c r="N2" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="O2" t="s">
         <v>39</v>
@@ -664,7 +661,7 @@
         <v>123993733</v>
       </c>
       <c r="Q2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>36</v>

--- a/Data Files/DataFile.xlsx
+++ b/Data Files/DataFile.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>CompanyCode</t>
   </si>
@@ -145,6 +145,21 @@
   </si>
   <si>
     <t>Cell</t>
+  </si>
+  <si>
+    <t>Mohd Shahrul Iman</t>
+  </si>
+  <si>
+    <t>Mohd Ibrahim</t>
+  </si>
+  <si>
+    <t>matrism</t>
+  </si>
+  <si>
+    <t>MACP</t>
+  </si>
+  <si>
+    <t>Germany</t>
   </si>
 </sst>
 </file>
@@ -527,10 +542,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,7 +667,7 @@
         <v>40150</v>
       </c>
       <c r="N2" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="O2" t="s">
         <v>39</v>
@@ -670,14 +685,77 @@
         <v>35</v>
       </c>
       <c r="T2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3">
+        <v>1982</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3">
+        <v>40150</v>
+      </c>
+      <c r="N3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3">
+        <v>123993733</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1"/>
+    <hyperlink ref="R3" r:id="rId1"/>
+    <hyperlink ref="R2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Data Files/DataFile.xlsx
+++ b/Data Files/DataFile.xlsx
@@ -57,9 +57,6 @@
     <t>CreditName</t>
   </si>
   <si>
-    <t>DOBdayYear</t>
-  </si>
-  <si>
     <t>DOBMonth</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>Germany</t>
+  </si>
+  <si>
+    <t>DOBYear</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,155 +575,155 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>18</v>
-      </c>
-      <c r="M1" t="s">
-        <v>19</v>
       </c>
       <c r="N1" t="s">
         <v>2</v>
       </c>
       <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>24</v>
-      </c>
-      <c r="T1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
       </c>
       <c r="D2">
         <v>1982</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2">
         <v>30</v>
       </c>
       <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>32</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>33</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>34</v>
-      </c>
-      <c r="L2" t="s">
-        <v>35</v>
       </c>
       <c r="M2">
         <v>40150</v>
       </c>
       <c r="N2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P2">
         <v>123993733</v>
       </c>
       <c r="Q2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" t="s">
         <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
       </c>
       <c r="D3">
         <v>1982</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3">
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
         <v>31</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>32</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>33</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>34</v>
-      </c>
-      <c r="L3" t="s">
-        <v>35</v>
       </c>
       <c r="M3">
         <v>40150</v>
@@ -732,22 +732,22 @@
         <v>4</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P3">
         <v>123993733</v>
       </c>
       <c r="Q3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" t="s">
         <v>36</v>
-      </c>
-      <c r="S3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
